--- a/SuppXLS/Trades/ScenTrade_TRADE_PARAM.xlsx
+++ b/SuppXLS/Trades/ScenTrade_TRADE_PARAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_IPOY\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798EFCA-5322-4D38-A9AE-05C1180E5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D798EFCA-5322-4D38-A9AE-05C1180E5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9D77CE-1081-4139-A524-3C1E340F5DDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="34320" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trade_Param" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -68,31 +68,16 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>FLO_DELIV</t>
-  </si>
-  <si>
-    <t>FLO_COST</t>
-  </si>
-  <si>
     <t>Cset_CN</t>
   </si>
   <si>
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>PP_ELC_HV</t>
-  </si>
-  <si>
-    <t>TU_PP_ELC_HV_PL_DHTCL*</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
     <t>\I:</t>
-  </si>
-  <si>
-    <t>2020, 2021, 2025, 2030, 2035, 2040, 2045, 2050</t>
   </si>
 </sst>
 </file>
@@ -721,7 +706,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -744,7 +729,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" customHeight="1">
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -759,18 +744,18 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -778,39 +763,19 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1"/>
-    <row r="6" spans="2:6" ht="27">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>50.523400000000002</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6" ht="27.6" thickBot="1">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.9159000000000006</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="2:6" ht="15" thickBot="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -821,9 +786,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DFBF53F0ACC204A81AA471894AB8BEB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b259ffa322c1c0eae8def1f76813935b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3f17c7eff3df56e3ae074ef677741bc" ns2:_="">
-    <xsd:import namespace="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
+    <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -841,7 +815,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3355bc15-3803-43c6-99c3-19930f83c70c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -964,15 +938,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -980,24 +945,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8882A044-BD56-4D32-965A-D2CA81D978D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C530500-7E72-4313-A3E9-F8E162550DD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1005,17 +952,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B92582-DBED-495E-8A8E-6A55B66064BE}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24341389-805C-410A-9A02-5E2B6ECC6A43}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>